--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample09-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample09-from-config-file.xlsx
@@ -9,7 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Inventory'!$A$1:$E$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Inventory'!$A$1:$E$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory'!$1:$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Nails</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Saw</t>
   </si>
 </sst>
 </file>
@@ -285,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="1" view="pageLayout"/>
   </sheetViews>
@@ -309,16 +321,67 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="14">
-        <f>SUBTOTAL(109,C2:C1)</f>
-      </c>
-      <c r="D2" s="18">
-        <f>SUBTOTAL(109,D2:D1)</f>
-      </c>
-      <c r="E2" s="22">
-        <f>SUBTOTAL(109,E2:E1)</f>
+      <c r="A2" s="4">
+        <v>12001</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="16">
+        <v>3.9900000095367432</v>
+      </c>
+      <c r="E2" s="20">
+        <v>147.6300048828125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <v>12002</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17">
+        <v>12.100000381469727</v>
+      </c>
+      <c r="E3" s="21">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>12003</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="16">
+        <v>15.369999885559082</v>
+      </c>
+      <c r="E4" s="20">
+        <v>184.44000244140625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="14">
+        <f>SUBTOTAL(109,C2:C4)</f>
+      </c>
+      <c r="D5" s="18">
+        <f>SUBTOTAL(109,D2:D4)</f>
+      </c>
+      <c r="E5" s="22">
+        <f>SUBTOTAL(109,E2:E4)</f>
       </c>
     </row>
   </sheetData>
